--- a/data_year/zb/运输和邮电/企业信息化及电子商务情况/按行业分电子商务销售额.xlsx
+++ b/data_year/zb/运输和邮电/企业信息化及电子商务情况/按行业分电子商务销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,87 +436,87 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>交通运输、仓储和邮政业电子商务销售额</t>
+          <t>交通运输、仓储和邮政业企业电子商务销售额</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>住宿和餐饮业电子商务销售额</t>
+          <t>企业电子商务销售额</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>信息传输、软件和信息技术服务业电子商务销售额</t>
+          <t>住宿和餐饮业企业电子商务销售额</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>制造业电子商务销售额</t>
+          <t>信息传输、软件和信息技术服务业企业电子商务销售额</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>卫生和社会工作电子商务销售额</t>
+          <t>制造业企业电子商务销售额</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>居民服务、修理和其他服务业电子商务销售额</t>
+          <t>卫生和社会工作企业电子商务销售额</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>建筑业电子商务销售额</t>
+          <t>居民服务、修理和其他服务业企业电子商务销售额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>房地产业电子商务销售额</t>
+          <t>建筑业企业电子商务销售额</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>批发和零售业电子商务销售额</t>
+          <t>房地产业企业电子商务销售额</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>教育电子商务销售额</t>
+          <t>批发和零售业企业电子商务销售额</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>文化、体育和娱乐业电子商务销售额</t>
+          <t>教育企业电子商务销售额</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>水利、环境和公共设施管理业电子商务销售额</t>
+          <t>文化、体育和娱乐业企业电子商务销售额</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>电力、热力、燃气及水生产和供应业电子商务销售额</t>
+          <t>水利、环境和公共设施管理业企业电子商务销售额</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>电子商务销售额</t>
+          <t>电力、热力、燃气及水生产和供应业企业电子商务销售额</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>科学研究和技术服务业电子商务销售额</t>
+          <t>科学研究和技术服务业企业电子商务销售额</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>租赁和商务服务业电子商务销售额</t>
+          <t>租赁和商务服务业企业电子商务销售额</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>采矿业电子商务销售额</t>
+          <t>采矿业企业电子商务销售额</t>
         </is>
       </c>
     </row>
@@ -530,43 +530,43 @@
         <v>1963.46795</v>
       </c>
       <c r="C2" t="n">
+        <v>56683.57176</v>
+      </c>
+      <c r="D2" t="n">
         <v>85.68765999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1883.79274</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>31358.17088</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1.16446</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>1.81777</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>66.64239999999999</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>22.94621</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>17365.25316</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>9.4154</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>48.81339</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>9.455399999999999</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2986.46355</v>
-      </c>
-      <c r="O2" t="n">
-        <v>56683.57176</v>
       </c>
       <c r="P2" t="n">
         <v>63.10697</v>
@@ -588,43 +588,43 @@
         <v>2941.56366</v>
       </c>
       <c r="C3" t="n">
+        <v>79657.93968</v>
+      </c>
+      <c r="D3" t="n">
         <v>240.53642</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>5750.2758</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>40314.37429</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>2.42595</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10.02135</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>72.11230999999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>71.91645</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>27651.50151</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>17.8233</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>87.77526</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>28.77342</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>72.58501</v>
-      </c>
-      <c r="O3" t="n">
-        <v>79657.93968</v>
       </c>
       <c r="P3" t="n">
         <v>173.30142</v>
@@ -646,43 +646,43 @@
         <v>3275.0167</v>
       </c>
       <c r="C4" t="n">
+        <v>91724.2457</v>
+      </c>
+      <c r="D4" t="n">
         <v>436.7456</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>7829.5617</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>38714.9959</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3.7879</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15.8102</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>86.49039999999999</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>73.069</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>37858.9919</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>20.8234</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>202.6558</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>36.2695</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>73.9331</v>
-      </c>
-      <c r="O4" t="n">
-        <v>91724.2457</v>
       </c>
       <c r="P4" t="n">
         <v>559.269</v>
@@ -704,43 +704,43 @@
         <v>3843.9503</v>
       </c>
       <c r="C5" t="n">
+        <v>107321.7819</v>
+      </c>
+      <c r="D5" t="n">
         <v>482.2915</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>11274.5663</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>41682.0433</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>2.8749</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>14.4651</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>61.5963</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>96.0485</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>44035.6524</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>29.722</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>277.4675</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>43.1524</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>277.2745</v>
-      </c>
-      <c r="O5" t="n">
-        <v>107321.7819</v>
       </c>
       <c r="P5" t="n">
         <v>650.0555000000001</v>
@@ -762,43 +762,43 @@
         <v>4440.3345</v>
       </c>
       <c r="C6" t="n">
+        <v>130480.6799</v>
+      </c>
+      <c r="D6" t="n">
         <v>697.927</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>10215.9101</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>50114.7045</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>8.0375</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>84.3914</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>117.8509</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>39.2692</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>56264.5297</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>69.1467</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>263.5734</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>47.1424</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>2471.7282</v>
-      </c>
-      <c r="O6" t="n">
-        <v>130480.6799</v>
       </c>
       <c r="P6" t="n">
         <v>727.0683</v>
@@ -820,43 +820,43 @@
         <v>5227.172636</v>
       </c>
       <c r="C7" t="n">
+        <v>152424.4774</v>
+      </c>
+      <c r="D7" t="n">
         <v>881.2289227</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>11164.8833059</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>55925.7583391</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>8.561652199999999</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>47.271779</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>156.1327584</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>249.6140541</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>68984.7232257</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>133.311737</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>332.9340699</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>58.4595085</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2739.6156942</v>
-      </c>
-      <c r="O7" t="n">
-        <v>152424.4774</v>
       </c>
       <c r="P7" t="n">
         <v>236.5379668</v>
@@ -878,43 +878,43 @@
         <v>7294.34874</v>
       </c>
       <c r="C8" t="n">
+        <v>169325.88976</v>
+      </c>
+      <c r="D8" t="n">
         <v>1168.73344</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>11465.58743</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>56339.80871</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>18.44636</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>84.57777</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>186.06373</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>394.4658</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>84183.351</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>330.4874</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>404.54521</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>74.09484999999999</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1645.69077</v>
-      </c>
-      <c r="O8" t="n">
-        <v>169325.88976</v>
       </c>
       <c r="P8" t="n">
         <v>273.68343</v>
@@ -936,43 +936,43 @@
         <v>6524.336815</v>
       </c>
       <c r="C9" t="n">
+        <v>189334.652538</v>
+      </c>
+      <c r="D9" t="n">
         <v>1430.00122</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>14698.838025</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>60164.25912</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>32.450842</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>90.12569999999999</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>185.648457</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>390.32029</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>97859.16258</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>812.8094630000001</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>319.30094</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>52.55469</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>1456.068959</v>
-      </c>
-      <c r="O9" t="n">
-        <v>189334.652538</v>
       </c>
       <c r="P9" t="n">
         <v>298.591557</v>
@@ -982,6 +982,64 @@
       </c>
       <c r="R9" t="n">
         <v>552.396526</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9421.911599999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>227611.27949</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1894.5493</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18604.47603</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71267.6548</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45.22657</v>
+      </c>
+      <c r="H10" t="n">
+        <v>122.05253</v>
+      </c>
+      <c r="I10" t="n">
+        <v>208.72657</v>
+      </c>
+      <c r="J10" t="n">
+        <v>370.56701</v>
+      </c>
+      <c r="K10" t="n">
+        <v>115344.04555</v>
+      </c>
+      <c r="L10" t="n">
+        <v>800.38899</v>
+      </c>
+      <c r="M10" t="n">
+        <v>482.53263</v>
+      </c>
+      <c r="N10" t="n">
+        <v>72.8618</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1799.74623</v>
+      </c>
+      <c r="P10" t="n">
+        <v>665.6768499999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5667.52455</v>
+      </c>
+      <c r="R10" t="n">
+        <v>843.33849</v>
       </c>
     </row>
   </sheetData>
